--- a/HeroFishing/命令檔說明.xlsx
+++ b/HeroFishing/命令檔說明.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C79201-0C6A-45CE-AE9B-3DA200BA7258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002301DE-B526-452B-82F3-F5C0CBDA0D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5805" yWindow="4305" windowWidth="21600" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>可以在此料夾底下執行Powershell並輸入以下語法來測試上傳Bundle包是否正常</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>可以在此料夾底下執行Git bash並輸入以下語法來測試上傳Bundle包是否正常</t>
   </si>
@@ -30,6 +27,18 @@
   </si>
   <si>
     <t>sh UploadDevBundle.sh 0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在此料夾底下執行Powershell並輸入以下語法來測試上傳Bundle包是否正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在此料夾底下執行cmd並輸入以下語法來測試上傳Bundle包是否正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.\UploadBundle.bat aurafortest aurafortest_bundle_dev 0.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,32 +388,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:B6"/>
+  <dimension ref="B2:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/HeroFishing/命令檔說明.xlsx
+++ b/HeroFishing/命令檔說明.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002301DE-B526-452B-82F3-F5C0CBDA0D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60DD5EE-8E22-4BF0-8DFA-BDE285050661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="4305" windowWidth="21600" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>可以在此料夾底下執行Git bash並輸入以下語法來測試上傳Bundle包是否正常</t>
   </si>
@@ -38,7 +38,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>.\UploadBundle.bat aurafortest aurafortest_bundle_dev 0.2</t>
+    <t>IOS可以輸入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./UploadBundle.sh herofishing-dev herofishing_bundle_dev 0.15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:B9"/>
+  <dimension ref="B2:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -403,7 +407,7 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
@@ -424,6 +428,16 @@
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
